--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\Documents\GitHub\RealTimeStockMarket\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RealTimeStockMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{173F72BD-530F-47FD-8534-30C5223B799D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A42F530-D513-485A-AEE6-C7DD844C4CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1000" windowWidth="14400" windowHeight="8570" xr2:uid="{12166EED-8B26-476A-A5BA-1DA740A8F721}"/>
+    <workbookView xWindow="2610" yWindow="2610" windowWidth="16695" windowHeight="7875" xr2:uid="{12166EED-8B26-476A-A5BA-1DA740A8F721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,17 +412,17 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -445,7 +445,7 @@
         <v>3.03043</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -456,12 +456,18 @@
         <v>3.4092199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>6.1715999999999998</v>
+      </c>
+      <c r="D5">
+        <v>4.7069999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -472,7 +478,7 @@
         <v>7.6212</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
